--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang11/XKBH_KimLong_121124.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang11/XKBH_KimLong_121124.xlsx
@@ -22,14 +22,14 @@
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -426,27 +426,25 @@
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
+    <t>TG102LE-4G</t>
+  </si>
+  <si>
+    <t>Đổi bảo hành</t>
+  </si>
+  <si>
+    <t>Đề xuất đổi từ HTKT, ID cũ: 
+006011074345265
+006011074336181
+006080056231645
+006011074334129
+006011074335373
+006011074323742</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng: Đại lý Kim Long</t>
+  </si>
+  <si>
     <t>Hà Nội, Ngày 12 Tháng 11 Năm 2024</t>
-  </si>
-  <si>
-    <t>VT_Module_A7677S (A7677 Z3283)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           006011074345265
-           006011074336181
-ID cũ:  006080056231645
-           006011074334129
-           006011074335373
-           006011074323742</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng:  Kho VNET</t>
-  </si>
-  <si>
-    <t>VT_Vỏ hộp_TG102LE</t>
-  </si>
-  <si>
-    <t>Thay thế linh kiện lỗi cho mã Module A7672S làm mới nhập kho</t>
   </si>
 </sst>
 </file>
@@ -459,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="@*."/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -578,6 +576,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1053,7 +1058,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1172,9 +1177,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,15 +1195,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1211,13 +1207,90 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,80 +1320,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1337,67 +1380,46 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,15 +1452,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1478,8 +1491,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1499,25 +1533,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1541,29 +1578,14 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1578,39 +1600,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1642,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1694,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1743,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1795,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1844,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1893,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1948,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +1997,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2046,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2090,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,57 +2505,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="71" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="71"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="71" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2593,176 +2582,176 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73" t="s">
+      <c r="H8" s="79"/>
+      <c r="I8" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="73"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>985</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="78" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="78"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="49" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <v>985</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="78" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="78"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="49" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <v>985</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78" t="s">
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="78"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="A12" s="50">
         <v>4</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="78"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="85" t="s">
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="88" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="88" t="s">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -2797,25 +2786,25 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="91" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="91" t="s">
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2828,19 +2817,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2857,12 +2839,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -2896,51 +2885,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="71" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="71"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="71" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2967,138 +2956,138 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="79" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="83" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="97"/>
-      <c r="J8" s="80"/>
+      <c r="J8" s="84"/>
       <c r="K8" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="51" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="98">
         <v>6</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="94" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="51"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="51" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="98">
         <v>4</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="94" t="s">
+      <c r="G10" s="100"/>
+      <c r="H10" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="51" t="s">
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="51" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="98">
         <v>2</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="94" t="s">
+      <c r="G11" s="100"/>
+      <c r="H11" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="51" t="s">
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="85" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="85" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="88" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="88" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -3133,23 +3122,23 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="91" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="91" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3162,6 +3151,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3171,24 +3178,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3203,291 +3192,282 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="104" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="110" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="110"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="110" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="110"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="110"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+    </row>
+    <row r="6" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+    </row>
+    <row r="7" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
+        <v>1</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-    </row>
-    <row r="6" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
-        <v>1</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="C9" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="50">
+        <v>6</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="187" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="G9" s="60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="116"/>
+      <c r="G11" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="191"/>
-      <c r="F9" s="189" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="193" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
-        <v>2</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="51">
+      <c r="B12" s="114"/>
+      <c r="C12" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="192"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="194"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="100" t="s">
+      <c r="D12" s="114"/>
+      <c r="E12" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="62" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="101" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101" t="s">
+      <c r="D18" s="115"/>
+      <c r="E18" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="61" t="s">
+      <c r="F18" s="115"/>
+      <c r="G18" s="63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="89" t="s">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-    </row>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3495,29 +3475,33 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G28" s="52" t="s">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G27" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="J29" s="52" t="s">
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="J28" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G31" s="52"/>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G30" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="21">
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="F1:G1"/>
@@ -3527,24 +3511,9 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
-  <pageMargins left="1" right="1.5" top="1.5" bottom="1.5" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="1" right="1.5" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3571,188 +3540,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="114" t="s">
+      <c r="A1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="71" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="71"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="71" t="s">
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="71" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="71"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77" t="s">
+      <c r="G5" s="74"/>
+      <c r="H5" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="77"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>1</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="119"/>
+      <c r="D7" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <v>1</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <v>1</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133" t="s">
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="133"/>
+      <c r="H10" s="140"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131" t="s">
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="131"/>
+      <c r="H15" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -3769,6 +3731,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -3798,42 +3767,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="140" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="139"/>
+      <c r="B5" s="143"/>
       <c r="F5" s="20" t="s">
         <v>45</v>
       </c>
@@ -4072,32 +4041,32 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="149" t="s">
+      <c r="E37" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="149"/>
+      <c r="F37" s="153"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="137"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="137" t="s">
+      <c r="E38" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="137"/>
+      <c r="F38" s="141"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="138"/>
+      <c r="C39" s="142"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="138" t="s">
+      <c r="E39" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="138"/>
+      <c r="F39" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4141,78 +4110,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="153" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="154" t="s">
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="155"/>
-      <c r="L3" s="156"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="154" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -4304,58 +4273,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="150" t="s">
+      <c r="E21" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="150" t="s">
+      <c r="F21" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150" t="s">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="150" t="s">
+      <c r="I21" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="150" t="s">
+      <c r="J21" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="158" t="s">
+      <c r="K21" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="157" t="s">
+      <c r="L21" s="154" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="163"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="150"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="72"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="96"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
@@ -4400,45 +4369,45 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="162" t="s">
+      <c r="D26" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137" t="s">
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="137"/>
-      <c r="H27" s="137" t="s">
+      <c r="F27" s="141"/>
+      <c r="H27" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138" t="s">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="138"/>
-      <c r="I28" s="138" t="s">
+      <c r="F28" s="142"/>
+      <c r="I28" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="138"/>
+      <c r="J28" s="142"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,74 +4441,74 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="161" t="s">
+      <c r="A33" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4547,6 +4516,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4563,22 +4548,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4611,62 +4580,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="176" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="154" t="s">
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="156"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="154" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="156"/>
+      <c r="K3" s="167"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="154" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="156"/>
+      <c r="K4" s="167"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4680,12 +4649,12 @@
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -4715,10 +4684,10 @@
       <c r="I7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="172" t="s">
+      <c r="J7" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="173"/>
+      <c r="K7" s="170"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -4732,8 +4701,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="166"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -4747,8 +4716,8 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="166"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
@@ -4762,8 +4731,8 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="168"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -4777,8 +4746,8 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -4792,8 +4761,8 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -4807,14 +4776,14 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="175"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -4822,44 +4791,35 @@
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="182"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="164" t="s">
+      <c r="E16" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164" t="s">
+      <c r="F16" s="176"/>
+      <c r="G16" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164" t="s">
+      <c r="H16" s="176"/>
+      <c r="I16" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4871,6 +4831,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4910,48 +4879,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="154" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="156"/>
+      <c r="J2" s="167"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="154" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="156"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="154" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="156"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4997,11 +4966,11 @@
       <c r="A8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="42" t="s">
         <v>2</v>
       </c>
@@ -5011,174 +4980,174 @@
       <c r="G8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="184"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="184"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="183"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="184"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="183"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="184"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="183"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="184"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="183"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="184"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="183"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="184"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="184"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="184"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="183"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="184"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="183"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>11</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5193,42 +5162,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5238,9 +5207,9 @@
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -5250,9 +5219,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5262,9 +5231,9 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5272,6 +5241,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -5279,38 +5280,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang11/XKBH_KimLong_121124.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang11/XKBH_KimLong_121124.xlsx
@@ -1230,69 +1230,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1320,17 +1257,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1365,30 +1380,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,6 +1443,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1491,6 +1491,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,9 +1519,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1515,23 +1533,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1557,26 +1578,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1585,21 +1600,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,7 +1642,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1694,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1844,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1893,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1948,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1997,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2046,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2090,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2164,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,57 +2505,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="95" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="95"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="95" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="95"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="95" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="95"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2582,29 +2582,29 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79" t="s">
+      <c r="J8" s="76"/>
+      <c r="K8" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="76"/>
       <c r="M8" s="22" t="s">
         <v>4</v>
       </c>
@@ -2613,86 +2613,86 @@
       <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="48">
         <v>985</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="75" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="75"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="48">
         <v>985</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="75" t="s">
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="75"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="48" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="48">
         <v>985</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50">
         <v>4</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="48" t="s">
         <v>92</v>
       </c>
@@ -2700,58 +2700,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="75"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="76" t="s">
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67" t="s">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="67" t="s">
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -2786,25 +2786,25 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="70" t="s">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="70" t="s">
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2817,12 +2817,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2839,19 +2846,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -2885,51 +2885,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="95" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="95"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="95"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="95" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="95"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2956,23 +2956,23 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="97"/>
-      <c r="J8" s="84"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="22" t="s">
         <v>4</v>
       </c>
@@ -2981,46 +2981,46 @@
       <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="97">
         <v>6</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="98" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="97">
         <v>4</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="98" t="s">
+      <c r="G10" s="99"/>
+      <c r="H10" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
       <c r="K10" s="50" t="s">
         <v>113</v>
       </c>
@@ -3029,65 +3029,65 @@
       <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="97">
         <v>2</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="98" t="s">
+      <c r="G11" s="99"/>
+      <c r="H11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="76" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="76" t="s">
+      <c r="G13" s="90"/>
+      <c r="H13" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="67" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="67" t="s">
+      <c r="G14" s="93"/>
+      <c r="H14" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -3122,23 +3122,23 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="70" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="70" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3151,6 +3151,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3160,24 +3178,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3194,8 +3194,8 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3214,72 +3214,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="102" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="108" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="108"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="108" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="108"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="108"/>
+      <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:7" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="53"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
@@ -3340,43 +3340,43 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="116"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="114"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="62" t="s">
         <v>6</v>
       </c>
@@ -3427,37 +3427,37 @@
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115" t="s">
+      <c r="D18" s="104"/>
+      <c r="E18" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="115"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3490,6 +3490,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="A11:B11"/>
@@ -3501,16 +3511,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="1" right="1.5" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3540,99 +3540,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="120" t="s">
+      <c r="A1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="95" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="95"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="95" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="95"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="95" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="95"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74" t="s">
+      <c r="G5" s="80"/>
+      <c r="H5" s="80" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <v>1</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="52" t="s">
         <v>118</v>
       </c>
@@ -3658,63 +3658,70 @@
       <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="117"/>
+      <c r="H9" s="138"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140" t="s">
+      <c r="B10" s="137"/>
+      <c r="C10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="140"/>
+      <c r="H10" s="137"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="138"/>
+      <c r="H15" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -3731,13 +3738,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -3767,8 +3767,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="144" t="s">
         <v>15</v>
       </c>
@@ -3779,8 +3779,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148"/>
       <c r="E3" s="149"/>
@@ -3789,8 +3789,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="150"/>
       <c r="D4" s="151"/>
       <c r="E4" s="152"/>
@@ -4110,78 +4110,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="164" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="165" t="s">
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="166"/>
-      <c r="L2" s="167"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="165" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="165" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="166"/>
-      <c r="L4" s="167"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -4273,58 +4273,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="157" t="s">
+      <c r="E21" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="157" t="s">
+      <c r="F21" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157" t="s">
+      <c r="G21" s="154"/>
+      <c r="H21" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="157" t="s">
+      <c r="I21" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="157" t="s">
+      <c r="J21" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="155" t="s">
+      <c r="K21" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="154" t="s">
+      <c r="L21" s="161" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="157"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="154"/>
       <c r="F22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="96"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
@@ -4369,12 +4369,12 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="141" t="s">
@@ -4441,74 +4441,74 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="159" t="s">
+      <c r="A33" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4516,22 +4516,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4548,6 +4532,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4580,62 +4580,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="173" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="165" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="165" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="167"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="165" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="167"/>
+      <c r="K4" s="160"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4649,12 +4649,12 @@
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -4684,10 +4684,10 @@
       <c r="I7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="169" t="s">
+      <c r="J7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="170"/>
+      <c r="K7" s="177"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -4701,8 +4701,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -4716,8 +4716,8 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="178"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
@@ -4731,8 +4731,8 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -4746,8 +4746,8 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -4761,8 +4761,8 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -4776,14 +4776,14 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="172"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -4791,35 +4791,44 @@
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176" t="s">
+      <c r="F16" s="168"/>
+      <c r="G16" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176" t="s">
+      <c r="H16" s="168"/>
+      <c r="I16" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4831,15 +4840,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4879,48 +4879,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="165" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="160"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="165" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="165" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="167"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -4966,11 +4966,11 @@
       <c r="A8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
       <c r="E8" s="42" t="s">
         <v>2</v>
       </c>
@@ -4980,174 +4980,174 @@
       <c r="G8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="186" t="s">
+      <c r="H8" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="183"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="188"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="183"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="188"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="183"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="188"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="183"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="188"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="183"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="188"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="183"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="188"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="183"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="188"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="183"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="188"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="183"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="183"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>11</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="190"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5162,42 +5162,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77" t="s">
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5207,9 +5207,9 @@
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -5219,9 +5219,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5231,9 +5231,9 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5241,6 +5241,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -5248,38 +5280,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
